--- a/data/case1/18/Plm2_14.xlsx
+++ b/data/case1/18/Plm2_14.xlsx
@@ -62,258 +62,258 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.049686633330964014</v>
+        <v>-0.087075292901118928</v>
       </c>
       <c r="B1" s="0">
-        <v>0.049468850028688394</v>
+        <v>0.086740928163777653</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0033566512462339659</v>
+        <v>-0.040628738363061245</v>
       </c>
       <c r="B2" s="0">
-        <v>0.0024944628281833303</v>
+        <v>0.039299331779030666</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.1004396670692671</v>
+        <v>0.11821712792044181</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.10098664271792046</v>
+        <v>-0.11882502799748096</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.18301071126796842</v>
+        <v>-0.16517252606644206</v>
       </c>
       <c r="B4" s="0">
-        <v>0.18192747541296228</v>
+        <v>0.16426490919332437</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.17592747555249488</v>
+        <v>-0.15826490930815318</v>
       </c>
       <c r="B5" s="0">
-        <v>0.17374314262427504</v>
+        <v>0.15644552553691415</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.089650746383322488</v>
+        <v>-0.096847277183844671</v>
       </c>
       <c r="B6" s="0">
-        <v>0.089534567937680887</v>
+        <v>0.096705582374324806</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.069534568109000716</v>
+        <v>-0.076705582518151516</v>
       </c>
       <c r="B7" s="0">
-        <v>0.069272553779684998</v>
+        <v>0.076368209563423051</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.04927255395252228</v>
+        <v>-0.05636820970879608</v>
       </c>
       <c r="B8" s="0">
-        <v>0.049085436801414417</v>
+        <v>0.056103435993489548</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.043085436949834133</v>
+        <v>-0.050103436116111233</v>
       </c>
       <c r="B9" s="0">
-        <v>0.042938929985242069</v>
+        <v>0.049886643830347133</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.036938930135171688</v>
+        <v>-0.043886643954600402</v>
       </c>
       <c r="B10" s="0">
-        <v>0.03691971151294382</v>
+        <v>0.0438559074501228</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.032419711660146788</v>
+        <v>-0.039355907571941628</v>
       </c>
       <c r="B11" s="0">
-        <v>0.032391061013480993</v>
+        <v>0.039308028267377892</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.026391061163726359</v>
+        <v>-0.03330802839223912</v>
       </c>
       <c r="B12" s="0">
-        <v>0.026317067974659825</v>
+        <v>0.033173052749885024</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.020317068126259663</v>
+        <v>-0.039154628369044708</v>
       </c>
       <c r="B13" s="0">
-        <v>0.020301534444456593</v>
+        <v>0.039087049569597632</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0083015346076091845</v>
+        <v>-0.027087049707210653</v>
       </c>
       <c r="B14" s="0">
-        <v>0.0082982058079208443</v>
+        <v>0.027054115867723105</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0022982059600202831</v>
+        <v>-0.021054115995303491</v>
       </c>
       <c r="B15" s="0">
-        <v>0.0022966515359890138</v>
+        <v>0.021028164977879626</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.0037033483118640298</v>
+        <v>-0.01502816510592897</v>
       </c>
       <c r="B16" s="0">
-        <v>-0.003709322969538853</v>
+        <v>0.015004778516943595</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0090046548174811392</v>
+        <v>-0.0090047786456155521</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0089999998422483074</v>
+        <v>0.008999999865896946</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.036112198928208272</v>
+        <v>-0.03611218992131171</v>
       </c>
       <c r="B18" s="0">
-        <v>0.036097003830743546</v>
+        <v>0.036097097023503721</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.027097003974636102</v>
+        <v>-0.027097097142444238</v>
       </c>
       <c r="B19" s="0">
-        <v>0.027014126901716562</v>
+        <v>0.027014160412450305</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.018014127046869888</v>
+        <v>-0.018014160532429102</v>
       </c>
       <c r="B20" s="0">
-        <v>0.018004313081226186</v>
+        <v>0.018004327213603233</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0090043132265718029</v>
+        <v>-0.0090043273337601093</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0089999998545202686</v>
+        <v>0.0089999998797027914</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.093934130041494868</v>
+        <v>-0.14851645981891082</v>
       </c>
       <c r="B22" s="0">
-        <v>0.093625145767269657</v>
+        <v>0.14766969563770438</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.084625145912565536</v>
+        <v>-0.13406432249458167</v>
       </c>
       <c r="B23" s="0">
-        <v>0.084125074295007707</v>
+        <v>0.13270581630918699</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.042125074504290261</v>
+        <v>-0.042127364865700123</v>
       </c>
       <c r="B24" s="0">
-        <v>0.041999999789615217</v>
+        <v>0.041999999816268563</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.059935909139372967</v>
+        <v>-0.053598248471804055</v>
       </c>
       <c r="B25" s="0">
-        <v>0.059853248091449984</v>
+        <v>0.05353001685056924</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.053853248236361395</v>
+        <v>-0.047530016969549393</v>
       </c>
       <c r="B26" s="0">
-        <v>0.053753994457093057</v>
+        <v>0.047449290839118419</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.047753994602452998</v>
+        <v>-0.041449290958476048</v>
       </c>
       <c r="B27" s="0">
-        <v>0.047439996340689738</v>
+        <v>0.041197973175720826</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.041439996487854458</v>
+        <v>-0.035197973296395624</v>
       </c>
       <c r="B28" s="0">
-        <v>0.041239949101179896</v>
+        <v>0.035040665610156729</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.029239949260675857</v>
+        <v>-0.023040665742163569</v>
       </c>
       <c r="B29" s="0">
-        <v>0.029162521630965443</v>
+        <v>0.022983278673935459</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.059268240379486414</v>
+        <v>-0.0029832788202943661</v>
       </c>
       <c r="B30" s="0">
-        <v>0.058896629419062485</v>
+        <v>0.0029394650221687968</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.043896629586749114</v>
+        <v>0.012060534840147241</v>
       </c>
       <c r="B31" s="0">
-        <v>0.043823825630411761</v>
+        <v>-0.012085512828253542</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.022823825809759057</v>
+        <v>-0.0060010433419055431</v>
       </c>
       <c r="B32" s="0">
-        <v>0.022792168057391926</v>
+        <v>0.0059999998781368191</v>
       </c>
     </row>
   </sheetData>
